--- a/biology/Biochimie/Fucosyllactose/Fucosyllactose.xlsx
+++ b/biology/Biochimie/Fucosyllactose/Fucosyllactose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 2'-fucosyllactose (2'-FL) est un oligosaccharide (ou oligoside) de formule brute C18H32O15  et de masse moléculaire 488,44 g/mol. Il résulte de la combinaison d'une molécule de fucose à une molécule de lactose (elle-même formée d'une molécule de glucose et d'une molécule de galactose). On le trouve naturellement dans le lait de la femme et de certains animaux.
@@ -516,9 +528,11 @@
           <t>Les HMO</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2’-FL appartient à la classe des HMO (Human Milk Oligosaccharide en anglais), c'est-à-dire les oligosaccharides présents dans le lait maternel humain, dont il représente environ 25%[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2’-FL appartient à la classe des HMO (Human Milk Oligosaccharide en anglais), c'est-à-dire les oligosaccharides présents dans le lait maternel humain, dont il représente environ 25%.
 Ces glucides complexes ne constituent pas une source énergétique pour le nourrisson du fait qu’ils ne sont pas digérés par ce dernier.
 En parvenant intacts dans le gros intestin, les HMO représentent une source importante de fibres prébiotiques stimulant les bactéries bénéfiques du microbiote intestinal, tout en ayant un effet anti-adhésif contre les bactéries pathogènes.
 De ce fait, ils contribuent à l’effet protecteur du lait humain contre les infections gastro-intestinales.
@@ -552,10 +566,12 @@
           <t>Fibre prébiotique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2’-FL est un tri-saccharide qui, bien que dérivé du lactose, n’est cependant pas digestible par les enzymes de l’individu au niveau de son intestin grêle. Après un transit par l’estomac et l’intestin grêle, une grande partie du 2’-FL est retrouvée intacte dans le côlon où il constitue une fibre prébiotique métabolisée par les bactéries.
-De multiples études ont démontré récemment que le 2’-FL, notamment très abondant dans le lait maternel humain, soutient le développement d’un microbiote intestinal équilibré (eubiotique), ainsi que d’un système immunitaire performant[3]. 
+De multiples études ont démontré récemment que le 2’-FL, notamment très abondant dans le lait maternel humain, soutient le développement d’un microbiote intestinal équilibré (eubiotique), ainsi que d’un système immunitaire performant. 
 </t>
         </is>
       </c>
@@ -584,22 +600,94 @@
           <t>Aliment fonctionnel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un aliment fonctionnel (ou nutraceutique) représente toute substance de type aliment ou partie d’aliment qui apporte une action bénéfique sur le plan médical et sur le plan de la santé.
 Produit par bio-fermentation, le 2’-FL a été approuvé en tant que Novell Food (en français, Nouveaux Aliments) pour une utilisation dans les compléments  alimentaires et les laits infantiles.
 En Europe, le 2’-FL est le tout premier oligosaccharide du lait maternel humain à avoir reçu l’autorisation comme complément alimentaire. Jusqu’il y a peu, seuls les GOS et FOS (Galacto- et Fructo-Oligo-Saccharides) étaient autorisés comme compléments en fibres alimentaires, mais ils étaient assez différents des vrais oligosaccharides présents dans le lait maternel humain.
 Il est facile à utiliser, car son goût est neutre, légèrement sucré. Il peut donc être mélangé à une boisson ou saupoudré sur un dessert.
 Il faut noter que certaines préparations peuvent contenir des traces de lactose pouvant entraîner un certain inconfort digestif chez les personnes intolérantes au lactose.
-Chez les enfants
-Chez le nouveau-né, les HMO et donc le 2’-FL participent à la mise en place d’une flore intestinale optimale. Cette dernière contribue largement au bon développement du système immunitaire[4],[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fucosyllactose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fucosyllactose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aliment fonctionnel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez les enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le nouveau-né, les HMO et donc le 2’-FL participent à la mise en place d’une flore intestinale optimale. Cette dernière contribue largement au bon développement du système immunitaire,.
 Pour les enfants de moins de 1 an, le 2'-fucosyllactose n'est pour l'instant autorisé que dans les préparations pour nourrissons et préparations de suite (i.e. laits 1er âge et 2ème âge), au dosage maximal de 1,2 g/l dans le produit final prêt à l’emploi, commercialisé tel quel ou reconstitué selon les indications du fabricant. Cependant les laits infantiles contenant du 2'-fucosyllactose sont encore très rares.
 Chez l’enfant en bas âge (1 à 3 ans), une posologie de 0,5 à 1 gr offre les bienfaits de l’oligosaccharide majoritaire du lait maternel humain (ex : Prébiolife Enfant) chez les enfants non-allaités ou dont la mère est FUT2 non-sécréteur.
 À partir de 4 ans la posologie adulte peut être adoptée, à savoir 1 à 3 gr par jour (ex : Prébiolife Adulte).
-Chez les adultes
-Une supplémentation orale de 1 à 3 gr/j d'une forme en vrac de 2’-FL pourrait ainsi être envisagée lors de la prise en charge de diverses inflammations intestinales[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fucosyllactose</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fucosyllactose</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aliment fonctionnel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez les adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une supplémentation orale de 1 à 3 gr/j d'une forme en vrac de 2’-FL pourrait ainsi être envisagée lors de la prise en charge de diverses inflammations intestinales.
 Outre ces formes en vrac, pour soutenir efficacement l’intégrité des muqueuses intestinales 250 mg de 2’-FL peuvent être associés, dans une gélule, à 100 mg de L-thréonine, acide aminé essentiel qui constitue une brique de construction indispensable pour la production du mucus et qui est également un site de glycosylation important. La posologie habituelle étant de 1 à 4 gélules par jour (ex : Fucodyn). 
-Parfois, des probiotiques (particulièrement si les souches sont d'origine humaine et sont résistantes à l'acide gastrique et aux sels biliaires), ainsi que des vitamines A et D y sont également associés (ex : Bactiol HMO Fucose)[7].
+Parfois, des probiotiques (particulièrement si les souches sont d'origine humaine et sont résistantes à l'acide gastrique et aux sels biliaires), ainsi que des vitamines A et D y sont également associés (ex : Bactiol HMO Fucose).
 </t>
         </is>
       </c>
